--- a/01 Quantum Analogs/Data/Quantum_Analogs_RawData.xlsx
+++ b/01 Quantum Analogs/Data/Quantum_Analogs_RawData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18195" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18195" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="82">
   <si>
     <t>Quantum Analogs Raw Data</t>
   </si>
@@ -258,15 +258,31 @@
   <si>
     <t>Difference</t>
   </si>
+  <si>
+    <t>9mm</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>3mm</t>
+  </si>
+  <si>
+    <t>Phase Measurements</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -381,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -460,15 +476,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,17 +496,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,6 +532,28 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26033,7 +26053,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>59418</xdr:colOff>
+      <xdr:colOff>87766</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>8431</xdr:rowOff>
     </xdr:to>
@@ -27376,10 +27396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI180"/>
+  <dimension ref="A1:BT180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA68" sqref="BA68"/>
+    <sheetView topLeftCell="AK1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -27418,17 +27438,17 @@
     <col min="61" max="61" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.5">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -27442,7 +27462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -27486,7 +27506,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.5">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -27592,8 +27612,11 @@
       <c r="BI6" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BL6" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D7">
         <f>D6-10</f>
         <v>170</v>
@@ -27705,8 +27728,32 @@
       <c r="BI7" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="BM7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D8">
         <f t="shared" ref="D8:D24" si="6">D7-10</f>
         <v>160</v>
@@ -27818,8 +27865,32 @@
       <c r="BI8" s="6">
         <v>1</v>
       </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO8">
+        <v>87.28</v>
+      </c>
+      <c r="BP8">
+        <v>5</v>
+      </c>
+      <c r="BQ8">
+        <v>95.91</v>
+      </c>
+      <c r="BR8">
+        <v>2</v>
+      </c>
+      <c r="BS8">
+        <v>178.6</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D9">
         <f t="shared" si="6"/>
         <v>150</v>
@@ -27931,8 +28002,32 @@
       <c r="BI9" s="6">
         <v>1</v>
       </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO9">
+        <v>-92.17</v>
+      </c>
+      <c r="BP9">
+        <v>2</v>
+      </c>
+      <c r="BQ9">
+        <v>-86.49</v>
+      </c>
+      <c r="BR9">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>-8.032</v>
+      </c>
+      <c r="BT9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D10">
         <f t="shared" si="6"/>
         <v>140</v>
@@ -28044,8 +28139,32 @@
       <c r="BI10" s="6">
         <v>1</v>
       </c>
+      <c r="BM10">
+        <v>1</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO10">
+        <v>-83.29</v>
+      </c>
+      <c r="BP10">
+        <v>2</v>
+      </c>
+      <c r="BQ10">
+        <v>-65.319999999999993</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10">
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D11">
         <f t="shared" si="6"/>
         <v>130</v>
@@ -28157,8 +28276,32 @@
       <c r="BI11" s="6">
         <v>1</v>
       </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO11">
+        <v>-52.08</v>
+      </c>
+      <c r="BP11">
+        <v>2</v>
+      </c>
+      <c r="BQ11">
+        <v>-63.81</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>14.81</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D12">
         <f t="shared" si="6"/>
         <v>120</v>
@@ -28247,7 +28390,7 @@
         <v>9.459999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D13">
         <f t="shared" si="6"/>
         <v>110</v>
@@ -28336,7 +28479,7 @@
         <v>9.7599999999999992E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D14">
         <f t="shared" si="6"/>
         <v>100</v>
@@ -28425,7 +28568,7 @@
         <v>9.8599999999999993E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D15">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -28514,7 +28657,7 @@
         <v>9.8900000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.5">
       <c r="D16">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -37278,10 +37421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AV213"/>
+  <dimension ref="C2:AY213"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -37314,9 +37457,10 @@
     <col min="46" max="46" width="8.5625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="9.3125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="9.6875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
@@ -37340,7 +37484,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -37377,7 +37521,7 @@
       <c r="O3" s="9"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C4" s="6">
         <v>0</v>
       </c>
@@ -37453,20 +37597,23 @@
       <c r="AR4" t="s">
         <v>10</v>
       </c>
-      <c r="AS4" s="49" t="s">
+      <c r="AS4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="AT4" s="55" t="s">
+      <c r="AT4" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" s="49" t="s">
+      <c r="AU4" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AV4" s="49" t="s">
+      <c r="AV4" s="44" t="s">
         <v>76</v>
       </c>
+      <c r="AW4" s="62" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C5" s="6">
         <v>10</v>
       </c>
@@ -37546,20 +37693,24 @@
       <c r="AS5" s="6">
         <v>1</v>
       </c>
-      <c r="AT5" s="56">
+      <c r="AT5" s="50">
         <f>AR5</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="59">
+      <c r="AU5" s="53">
         <f>ABS(COS(AM5))</f>
         <v>0.33273624568084514</v>
       </c>
-      <c r="AV5" s="51">
+      <c r="AV5" s="45">
         <f>ABS(AT5-AU5)</f>
         <v>0.33273624568084514</v>
       </c>
+      <c r="AW5" s="4">
+        <f>STDEV(AU5:AU13)/9</f>
+        <v>3.6001835759026261E-2</v>
+      </c>
     </row>
-    <row r="6" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C6" s="6">
         <v>20</v>
       </c>
@@ -37636,23 +37787,23 @@
       <c r="AR6" s="3">
         <v>0.57735027000000005</v>
       </c>
-      <c r="AS6" s="52">
+      <c r="AS6" s="46">
         <v>2</v>
       </c>
-      <c r="AT6" s="57">
+      <c r="AT6" s="51">
         <f t="shared" ref="AT6:AT13" si="7">AR6</f>
         <v>0.57735027000000005</v>
       </c>
-      <c r="AU6" s="60">
+      <c r="AU6" s="54">
         <f t="shared" ref="AU6:AU13" si="8">ABS(COS(AM6))</f>
         <v>0.49618891270599885</v>
       </c>
-      <c r="AV6" s="53">
+      <c r="AV6" s="47">
         <f t="shared" ref="AV6:AV13" si="9">ABS(AT6-AU6)</f>
         <v>8.1161357294001202E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C7" s="6">
         <v>30</v>
       </c>
@@ -37714,7 +37865,7 @@
       <c r="AH7" s="6">
         <v>1</v>
       </c>
-      <c r="AK7" s="37">
+      <c r="AK7" s="57">
         <v>4962</v>
       </c>
       <c r="AL7" s="32">
@@ -37729,23 +37880,23 @@
       <c r="AR7" s="5">
         <v>0</v>
       </c>
-      <c r="AS7" s="47">
+      <c r="AS7" s="59">
         <v>3</v>
       </c>
-      <c r="AT7" s="56">
+      <c r="AT7" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AU7" s="59">
+      <c r="AU7" s="53">
         <f t="shared" si="8"/>
         <v>6.9148448654061945E-2</v>
       </c>
-      <c r="AV7" s="51">
+      <c r="AV7" s="45">
         <f t="shared" si="9"/>
         <v>6.9148448654061945E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C8" s="6">
         <v>40</v>
       </c>
@@ -37807,7 +37958,7 @@
       <c r="AH8" s="6">
         <v>1</v>
       </c>
-      <c r="AK8" s="37"/>
+      <c r="AK8" s="57"/>
       <c r="AL8" s="32">
         <v>1</v>
       </c>
@@ -37820,21 +37971,21 @@
       <c r="AR8" s="3">
         <v>0.77459666900000002</v>
       </c>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="56">
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="50">
         <f t="shared" si="7"/>
         <v>0.77459666900000002</v>
       </c>
-      <c r="AU8" s="59">
+      <c r="AU8" s="53">
         <f t="shared" si="8"/>
         <v>0.81873459927738157</v>
       </c>
-      <c r="AV8" s="51">
+      <c r="AV8" s="45">
         <f t="shared" si="9"/>
         <v>4.4137930277381554E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C9" s="6">
         <v>50</v>
       </c>
@@ -37896,7 +38047,7 @@
       <c r="AH9" s="6">
         <v>1</v>
       </c>
-      <c r="AK9" s="36">
+      <c r="AK9" s="56">
         <v>6202</v>
       </c>
       <c r="AL9" s="29">
@@ -37911,23 +38062,24 @@
       <c r="AR9" s="3">
         <v>0.33998104000000001</v>
       </c>
-      <c r="AS9" s="50">
+      <c r="AS9" s="60">
         <v>4</v>
       </c>
-      <c r="AT9" s="57">
+      <c r="AT9" s="51">
         <f t="shared" si="7"/>
         <v>0.33998104000000001</v>
       </c>
-      <c r="AU9" s="60">
+      <c r="AU9" s="54">
         <f t="shared" si="8"/>
         <v>0.41614683654714241</v>
       </c>
-      <c r="AV9" s="53">
+      <c r="AV9" s="47">
         <f t="shared" si="9"/>
         <v>7.6165796547142395E-2</v>
       </c>
+      <c r="AY9" s="63"/>
     </row>
-    <row r="10" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C10" s="6">
         <v>60</v>
       </c>
@@ -37989,7 +38141,7 @@
       <c r="AH10" s="6">
         <v>1</v>
       </c>
-      <c r="AK10" s="36"/>
+      <c r="AK10" s="56"/>
       <c r="AL10" s="29">
         <v>1</v>
       </c>
@@ -38002,21 +38154,21 @@
       <c r="AR10" s="3">
         <v>0.86113631000000002</v>
       </c>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="57">
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="51">
         <f t="shared" si="7"/>
         <v>0.86113631000000002</v>
       </c>
-      <c r="AU10" s="60">
+      <c r="AU10" s="54">
         <f t="shared" si="8"/>
         <v>0.8815821958782859</v>
       </c>
-      <c r="AV10" s="53">
+      <c r="AV10" s="47">
         <f t="shared" si="9"/>
         <v>2.0445885878285885E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C11" s="6">
         <v>70</v>
       </c>
@@ -38072,7 +38224,7 @@
       <c r="T11" s="9">
         <v>1E-3</v>
       </c>
-      <c r="AK11" s="37">
+      <c r="AK11" s="57">
         <v>7409</v>
       </c>
       <c r="AL11" s="32">
@@ -38087,23 +38239,23 @@
       <c r="AR11" s="5">
         <v>0</v>
       </c>
-      <c r="AS11" s="47">
+      <c r="AS11" s="59">
         <v>5</v>
       </c>
-      <c r="AT11" s="56">
+      <c r="AT11" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="59">
+      <c r="AU11" s="53">
         <f t="shared" si="8"/>
         <v>6.9148448654061945E-2</v>
       </c>
-      <c r="AV11" s="51">
+      <c r="AV11" s="45">
         <f t="shared" si="9"/>
         <v>6.9148448654061945E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C12" s="6">
         <v>80</v>
       </c>
@@ -38159,7 +38311,7 @@
       <c r="T12" s="9">
         <v>1E-3</v>
       </c>
-      <c r="AK12" s="37"/>
+      <c r="AK12" s="57"/>
       <c r="AL12" s="32">
         <v>1</v>
       </c>
@@ -38172,21 +38324,21 @@
       <c r="AR12" s="3">
         <v>0.53846930999999998</v>
       </c>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="56">
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="50">
         <f t="shared" si="7"/>
         <v>0.53846930999999998</v>
       </c>
-      <c r="AU12" s="59">
+      <c r="AU12" s="53">
         <f t="shared" si="8"/>
         <v>0.49618891270599885</v>
       </c>
-      <c r="AV12" s="51">
+      <c r="AV12" s="45">
         <f t="shared" si="9"/>
         <v>4.2280397294001126E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C13" s="6">
         <v>90</v>
       </c>
@@ -38242,7 +38394,7 @@
       <c r="T13" s="9">
         <v>2E-3</v>
       </c>
-      <c r="AK13" s="38"/>
+      <c r="AK13" s="58"/>
       <c r="AL13" s="33">
         <v>1</v>
       </c>
@@ -38255,21 +38407,21 @@
       <c r="AR13" s="3">
         <v>0.90617984600000001</v>
       </c>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="58">
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="52">
         <f t="shared" si="7"/>
         <v>0.90617984600000001</v>
       </c>
-      <c r="AU13" s="61">
+      <c r="AU13" s="55">
         <f t="shared" si="8"/>
         <v>0.93175023528857215</v>
       </c>
-      <c r="AV13" s="54">
+      <c r="AV13" s="48">
         <f t="shared" si="9"/>
         <v>2.5570389288572137E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C14" s="6">
         <v>100</v>
       </c>
@@ -38330,7 +38482,7 @@
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
     </row>
-    <row r="15" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C15" s="6">
         <v>110</v>
       </c>
@@ -38387,7 +38539,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="16" spans="3:48" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:51" x14ac:dyDescent="0.5">
       <c r="C16" s="6">
         <v>120</v>
       </c>
@@ -40093,14 +40245,14 @@
       <c r="S56" s="19"/>
       <c r="T56" s="19"/>
       <c r="U56" s="16"/>
-      <c r="AH56" s="45" t="s">
+      <c r="AH56" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AI56" s="46"/>
-      <c r="AJ56" s="46"/>
-      <c r="AK56" s="46"/>
-      <c r="AL56" s="46"/>
-      <c r="AM56" s="46"/>
+      <c r="AI56" s="43"/>
+      <c r="AJ56" s="43"/>
+      <c r="AK56" s="43"/>
+      <c r="AL56" s="43"/>
+      <c r="AM56" s="43"/>
     </row>
     <row r="57" spans="3:40" x14ac:dyDescent="0.5">
       <c r="C57">
@@ -40159,22 +40311,22 @@
         <v>24</v>
       </c>
       <c r="U57" s="16"/>
-      <c r="AH57" s="44" t="s">
+      <c r="AH57" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AI57" s="44" t="s">
+      <c r="AI57" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AJ57" s="44" t="s">
+      <c r="AJ57" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AK57" s="44" t="s">
+      <c r="AK57" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AL57" s="44" t="s">
+      <c r="AL57" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AM57" s="44" t="s">
+      <c r="AM57" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -40235,22 +40387,22 @@
         <v>1E-3</v>
       </c>
       <c r="U58" s="16"/>
-      <c r="AH58" s="40">
+      <c r="AH58" s="37">
         <v>0</v>
       </c>
-      <c r="AI58" s="40">
+      <c r="AI58" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ58" s="40">
+      <c r="AJ58" s="37">
         <v>1.5707963267948966</v>
       </c>
-      <c r="AK58" s="40">
+      <c r="AK58" s="37">
         <v>1.7452768917601527E-3</v>
       </c>
-      <c r="AL58" s="42">
+      <c r="AL58" s="39">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="AM58" s="40">
+      <c r="AM58" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN58">
@@ -40315,22 +40467,22 @@
         <v>1E-3</v>
       </c>
       <c r="U59" s="16"/>
-      <c r="AH59" s="39">
+      <c r="AH59" s="36">
         <v>10</v>
       </c>
-      <c r="AI59" s="39">
+      <c r="AI59" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ59" s="39">
+      <c r="AJ59" s="36">
         <v>1.5783920764148944</v>
       </c>
-      <c r="AK59" s="39">
+      <c r="AK59" s="36">
         <v>1.7452149765756157E-3</v>
       </c>
-      <c r="AL59" s="43">
+      <c r="AL59" s="40">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="AM59" s="39">
+      <c r="AM59" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN59">
@@ -40395,22 +40547,22 @@
         <v>1E-3</v>
       </c>
       <c r="U60" s="16"/>
-      <c r="AH60" s="40">
+      <c r="AH60" s="37">
         <v>20</v>
       </c>
-      <c r="AI60" s="40">
+      <c r="AI60" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ60" s="40">
+      <c r="AJ60" s="37">
         <v>1.6009528264899993</v>
       </c>
-      <c r="AK60" s="40">
+      <c r="AK60" s="37">
         <v>1.7444374405732668E-3</v>
       </c>
-      <c r="AL60" s="42">
+      <c r="AL60" s="39">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="AM60" s="40">
+      <c r="AM60" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN60">
@@ -40475,22 +40627,22 @@
         <v>1E-3</v>
       </c>
       <c r="U61" s="16"/>
-      <c r="AH61" s="39">
+      <c r="AH61" s="36">
         <v>30</v>
       </c>
-      <c r="AI61" s="39">
+      <c r="AI61" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ61" s="39">
+      <c r="AJ61" s="36">
         <v>1.6378299557948135</v>
       </c>
-      <c r="AK61" s="39">
+      <c r="AK61" s="36">
         <v>1.7412551369765106E-3</v>
       </c>
-      <c r="AL61" s="43">
+      <c r="AL61" s="40">
         <v>5.91E-2</v>
       </c>
-      <c r="AM61" s="39">
+      <c r="AM61" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN61">
@@ -40555,22 +40707,22 @@
         <v>1E-3</v>
       </c>
       <c r="U62" s="16"/>
-      <c r="AH62" s="40">
+      <c r="AH62" s="37">
         <v>40</v>
       </c>
-      <c r="AI62" s="40">
+      <c r="AI62" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ62" s="40">
+      <c r="AJ62" s="37">
         <v>1.6880358818914452</v>
       </c>
-      <c r="AK62" s="40">
+      <c r="AK62" s="37">
         <v>1.7331179632935761E-3</v>
       </c>
-      <c r="AL62" s="42">
+      <c r="AL62" s="39">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="AM62" s="40">
+      <c r="AM62" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN62">
@@ -40635,22 +40787,22 @@
         <v>1E-3</v>
       </c>
       <c r="U63" s="16"/>
-      <c r="AH63" s="39">
+      <c r="AH63" s="36">
         <v>50</v>
       </c>
-      <c r="AI63" s="39">
+      <c r="AI63" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ63" s="39">
+      <c r="AJ63" s="36">
         <v>1.7503559939372297</v>
       </c>
-      <c r="AK63" s="39">
+      <c r="AK63" s="36">
         <v>1.7169450787156981E-3</v>
       </c>
-      <c r="AL63" s="43">
+      <c r="AL63" s="40">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="AM63" s="39">
+      <c r="AM63" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN63">
@@ -40715,22 +40867,22 @@
         <v>1E-3</v>
       </c>
       <c r="U64" s="16"/>
-      <c r="AH64" s="40">
+      <c r="AH64" s="37">
         <v>60</v>
       </c>
-      <c r="AI64" s="40">
+      <c r="AI64" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ64" s="40">
+      <c r="AJ64" s="37">
         <v>1.8234627701030712</v>
       </c>
-      <c r="AK64" s="40">
+      <c r="AK64" s="37">
         <v>1.6894823814332938E-3</v>
       </c>
-      <c r="AL64" s="42">
+      <c r="AL64" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AM64" s="40">
+      <c r="AM64" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN64">
@@ -40795,22 +40947,22 @@
         <v>1E-3</v>
       </c>
       <c r="U65" s="16"/>
-      <c r="AH65" s="39">
+      <c r="AH65" s="36">
         <v>70</v>
       </c>
-      <c r="AI65" s="39">
+      <c r="AI65" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ65" s="39">
+      <c r="AJ65" s="36">
         <v>1.9060121617472292</v>
       </c>
-      <c r="AK65" s="39">
+      <c r="AK65" s="36">
         <v>1.6476325818663984E-3</v>
       </c>
-      <c r="AL65" s="43">
+      <c r="AL65" s="40">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="AM65" s="39">
+      <c r="AM65" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN65">
@@ -40875,22 +41027,22 @@
         <v>1E-3</v>
       </c>
       <c r="U66" s="16"/>
-      <c r="AH66" s="40">
+      <c r="AH66" s="37">
         <v>80</v>
       </c>
-      <c r="AI66" s="40">
+      <c r="AI66" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ66" s="40">
+      <c r="AJ66" s="37">
         <v>1.996712891474163</v>
       </c>
-      <c r="AK66" s="40">
+      <c r="AK66" s="37">
         <v>1.5887253728842365E-3</v>
       </c>
-      <c r="AL66" s="42">
+      <c r="AL66" s="39">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="AM66" s="40">
+      <c r="AM66" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN66">
@@ -40955,22 +41107,22 @@
         <v>1E-3</v>
       </c>
       <c r="U67" s="16"/>
-      <c r="AH67" s="39">
+      <c r="AH67" s="36">
         <v>90</v>
       </c>
-      <c r="AI67" s="39">
+      <c r="AI67" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ67" s="39">
+      <c r="AJ67" s="36">
         <v>2.0943683558122101</v>
       </c>
-      <c r="AK67" s="39">
+      <c r="AK67" s="36">
         <v>1.5107160012971521E-3</v>
       </c>
-      <c r="AL67" s="43">
+      <c r="AL67" s="40">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="AM67" s="39">
+      <c r="AM67" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN67">
@@ -41035,22 +41187,22 @@
         <v>1E-3</v>
       </c>
       <c r="U68" s="16"/>
-      <c r="AH68" s="40">
+      <c r="AH68" s="37">
         <v>100</v>
       </c>
-      <c r="AI68" s="40">
+      <c r="AI68" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ68" s="40">
+      <c r="AJ68" s="37">
         <v>2.197896003866108</v>
       </c>
-      <c r="AK68" s="40">
+      <c r="AK68" s="37">
         <v>1.4123142821557133E-3</v>
       </c>
-      <c r="AL68" s="42">
+      <c r="AL68" s="39">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="AM68" s="40">
+      <c r="AM68" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN68">
@@ -41115,22 +41267,22 @@
         <v>1E-3</v>
       </c>
       <c r="U69" s="16"/>
-      <c r="AH69" s="39">
+      <c r="AH69" s="36">
         <v>110</v>
       </c>
-      <c r="AI69" s="39">
+      <c r="AI69" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ69" s="39">
+      <c r="AJ69" s="36">
         <v>2.3063306913269903</v>
       </c>
-      <c r="AK69" s="39">
+      <c r="AK69" s="36">
         <v>1.2930525819514482E-3</v>
       </c>
-      <c r="AL69" s="43">
+      <c r="AL69" s="40">
         <v>6.54E-2</v>
       </c>
-      <c r="AM69" s="39">
+      <c r="AM69" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN69">
@@ -41195,22 +41347,22 @@
         <v>1E-3</v>
       </c>
       <c r="U70" s="16"/>
-      <c r="AH70" s="40">
+      <c r="AH70" s="37">
         <v>120</v>
       </c>
-      <c r="AI70" s="40">
+      <c r="AI70" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ70" s="40">
+      <c r="AJ70" s="37">
         <v>2.4188179686406213</v>
       </c>
-      <c r="AK70" s="40">
+      <c r="AK70" s="37">
         <v>1.1533028787718003E-3</v>
       </c>
-      <c r="AL70" s="42">
+      <c r="AL70" s="39">
         <v>7.8599999999999989E-2</v>
       </c>
-      <c r="AM70" s="40">
+      <c r="AM70" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN70">
@@ -41275,22 +41427,22 @@
         <v>1E-3</v>
       </c>
       <c r="U71" s="16"/>
-      <c r="AH71" s="39">
+      <c r="AH71" s="36">
         <v>130</v>
       </c>
-      <c r="AI71" s="39">
+      <c r="AI71" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ71" s="39">
+      <c r="AJ71" s="36">
         <v>2.5346018477865488</v>
       </c>
-      <c r="AK71" s="39">
+      <c r="AK71" s="36">
         <v>9.9425218806814541E-4</v>
       </c>
-      <c r="AL71" s="43">
+      <c r="AL71" s="40">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="AM71" s="39">
+      <c r="AM71" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN71">
@@ -41355,22 +41507,22 @@
         <v>1E-3</v>
       </c>
       <c r="U72" s="16"/>
-      <c r="AH72" s="40">
+      <c r="AH72" s="37">
         <v>140</v>
       </c>
-      <c r="AI72" s="40">
+      <c r="AI72" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ72" s="40">
+      <c r="AJ72" s="37">
         <v>2.6530101014524243</v>
       </c>
-      <c r="AK72" s="40">
+      <c r="AK72" s="37">
         <v>8.1784410864227386E-4</v>
       </c>
-      <c r="AL72" s="42">
+      <c r="AL72" s="39">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AM72" s="40">
+      <c r="AM72" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN72">
@@ -41435,22 +41587,22 @@
         <v>1E-3</v>
       </c>
       <c r="U73" s="16"/>
-      <c r="AH73" s="39">
+      <c r="AH73" s="36">
         <v>150</v>
       </c>
-      <c r="AI73" s="39">
+      <c r="AI73" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ73" s="39">
+      <c r="AJ73" s="36">
         <v>2.7734389286959695</v>
       </c>
-      <c r="AK73" s="39">
+      <c r="AK73" s="36">
         <v>6.2669283482841287E-4</v>
       </c>
-      <c r="AL73" s="43">
+      <c r="AL73" s="40">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="AM73" s="39">
+      <c r="AM73" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN73">
@@ -41515,22 +41667,22 @@
         <v>1E-3</v>
       </c>
       <c r="U74" s="16"/>
-      <c r="AH74" s="40">
+      <c r="AH74" s="37">
         <v>160</v>
       </c>
-      <c r="AI74" s="40">
+      <c r="AI74" s="37">
         <v>0.1</v>
       </c>
-      <c r="AJ74" s="40">
+      <c r="AJ74" s="37">
         <v>2.8953379479392147</v>
       </c>
-      <c r="AK74" s="40">
+      <c r="AK74" s="37">
         <v>4.23974978610131E-4</v>
       </c>
-      <c r="AL74" s="42">
+      <c r="AL74" s="39">
         <v>9.9099999999999994E-2</v>
       </c>
-      <c r="AM74" s="40">
+      <c r="AM74" s="37">
         <v>1E-3</v>
       </c>
       <c r="AN74">
@@ -41559,22 +41711,22 @@
         <v>1E-3</v>
       </c>
       <c r="U75" s="16"/>
-      <c r="AH75" s="39">
+      <c r="AH75" s="36">
         <v>170</v>
       </c>
-      <c r="AI75" s="39">
+      <c r="AI75" s="36">
         <v>0.1</v>
       </c>
-      <c r="AJ75" s="39">
+      <c r="AJ75" s="36">
         <v>3.0181959055799767</v>
       </c>
-      <c r="AK75" s="39">
+      <c r="AK75" s="36">
         <v>2.1330394947693954E-4</v>
       </c>
-      <c r="AL75" s="43">
+      <c r="AL75" s="40">
         <v>0.10340000000000001</v>
       </c>
-      <c r="AM75" s="39">
+      <c r="AM75" s="36">
         <v>1E-3</v>
       </c>
       <c r="AN75">
@@ -41601,22 +41753,22 @@
       <c r="T76" s="21">
         <v>1E-3</v>
       </c>
-      <c r="AH76" s="41">
+      <c r="AH76" s="38">
         <v>180</v>
       </c>
-      <c r="AI76" s="41">
+      <c r="AI76" s="38">
         <v>0.1</v>
       </c>
-      <c r="AJ76" s="41">
+      <c r="AJ76" s="38">
         <v>3.1415271376084206</v>
       </c>
-      <c r="AK76" s="41">
+      <c r="AK76" s="38">
         <v>1.4086533427493109E-6</v>
       </c>
-      <c r="AL76" s="41">
+      <c r="AL76" s="38">
         <v>0.10249999999999999</v>
       </c>
-      <c r="AM76" s="41">
+      <c r="AM76" s="38">
         <v>1E-3</v>
       </c>
       <c r="AN76">
